--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B\Desktop\Uni\PhD\Physical\Project\False-Data-Injection-Detection-for-Smart-Grid-Systems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B78E746-B648-4656-9778-1C6D4AEBC1AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469C9FFA-CE89-431A-B3A4-61CF178F693F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14235" windowHeight="15750" xr2:uid="{DB13A7B6-A9F6-44BD-A24F-2A24EF4BD986}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{DB13A7B6-A9F6-44BD-A24F-2A24EF4BD986}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="initial" sheetId="1" r:id="rId1"/>
+    <sheet name="scaled" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t>Accuracy</t>
   </si>
@@ -202,7 +203,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$2</c:f>
+              <c:f>initial!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -223,7 +224,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$J$1</c:f>
+              <c:f>initial!$B$1:$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -258,7 +259,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$J$2</c:f>
+              <c:f>initial!$B$2:$J$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -549,7 +550,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$3</c:f>
+              <c:f>initial!$A$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -570,7 +571,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$J$1</c:f>
+              <c:f>initial!$B$1:$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -605,7 +606,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$J$3</c:f>
+              <c:f>initial!$B$3:$J$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -650,7 +651,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$4</c:f>
+              <c:f>initial!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -671,7 +672,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$J$1</c:f>
+              <c:f>initial!$B$1:$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -706,7 +707,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$J$4</c:f>
+              <c:f>initial!$B$4:$J$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -751,7 +752,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$5</c:f>
+              <c:f>initial!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -772,7 +773,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$J$1</c:f>
+              <c:f>initial!$B$1:$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -807,7 +808,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$J$5</c:f>
+              <c:f>initial!$B$5:$J$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -852,7 +853,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$A$6</c:f>
+              <c:f>initial!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -873,7 +874,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$B$1:$J$1</c:f>
+              <c:f>initial!$B$1:$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -908,7 +909,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$6:$J$6</c:f>
+              <c:f>initial!$B$6:$J$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1144,6 +1145,999 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>scaled!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>scaled!$B$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Random Forect</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Logistic Regression</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GaussianNB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>KNeighborsClassifier</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Decision Tree</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>AdaBoost</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>GradientBoosting</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Bagging</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>scaled!$B$2:$J$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.92</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4A89-462B-9A9A-4E282B7CA7AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="683244191"/>
+        <c:axId val="683241695"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="683244191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="683241695"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="683241695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="683244191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Precision and Recall</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>scaled!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>scaled!$B$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Random Forect</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Logistic Regression</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GaussianNB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>KNeighborsClassifier</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Decision Tree</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>AdaBoost</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>GradientBoosting</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Bagging</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>scaled!$B$3:$J$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.72</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C0D1-4062-AA1D-210435F68533}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>scaled!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Precision1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>scaled!$B$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Random Forect</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Logistic Regression</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GaussianNB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>KNeighborsClassifier</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Decision Tree</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>AdaBoost</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>GradientBoosting</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Bagging</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>scaled!$B$4:$J$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.54</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.77</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C0D1-4062-AA1D-210435F68533}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>scaled!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recall0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>scaled!$B$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Random Forect</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Logistic Regression</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GaussianNB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>KNeighborsClassifier</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Decision Tree</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>AdaBoost</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>GradientBoosting</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Bagging</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>scaled!$B$5:$J$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.98</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C0D1-4062-AA1D-210435F68533}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>scaled!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Recall1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>scaled!$B$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Random Forect</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Logistic Regression</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GaussianNB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>KNeighborsClassifier</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Decision Tree</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>AdaBoost</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>GradientBoosting</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Bagging</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>scaled!$B$6:$J$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.01</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C0D1-4062-AA1D-210435F68533}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="411742463"/>
+        <c:axId val="411739967"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="411742463"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="411739967"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="411739967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="411742463"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1224,6 +2218,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1728,6 +2802,1012 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2287,6 +4367,83 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85A99AD5-7F90-4E8F-9A48-755058B67448}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1152525</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97DA2ED4-C7B8-4BB8-AE85-E44726FC22AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1238250</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11335CBC-9974-4DCC-91DA-1A7B82DB9347}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2606,8 +4763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF88E30-9087-4055-8DE5-F47D62670C56}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2882,4 +5039,285 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3268192-9544-431F-9349-D487156342F4}">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.92</v>
+      </c>
+      <c r="C2">
+        <v>0.7</v>
+      </c>
+      <c r="D2">
+        <v>0.7</v>
+      </c>
+      <c r="E2">
+        <v>0.68</v>
+      </c>
+      <c r="F2">
+        <v>0.81</v>
+      </c>
+      <c r="G2">
+        <v>0.71</v>
+      </c>
+      <c r="H2">
+        <v>0.71</v>
+      </c>
+      <c r="I2">
+        <v>0.73</v>
+      </c>
+      <c r="J2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>0.91</v>
+      </c>
+      <c r="C3">
+        <v>0.7</v>
+      </c>
+      <c r="D3">
+        <v>0.7</v>
+      </c>
+      <c r="E3">
+        <v>0.71</v>
+      </c>
+      <c r="F3">
+        <v>0.85</v>
+      </c>
+      <c r="G3">
+        <v>0.71</v>
+      </c>
+      <c r="H3">
+        <v>0.71</v>
+      </c>
+      <c r="I3">
+        <v>0.72</v>
+      </c>
+      <c r="J3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>0.93</v>
+      </c>
+      <c r="C4">
+        <v>0.6</v>
+      </c>
+      <c r="D4">
+        <v>0.51</v>
+      </c>
+      <c r="E4">
+        <v>0.34</v>
+      </c>
+      <c r="F4">
+        <v>0.71</v>
+      </c>
+      <c r="G4">
+        <v>0.85</v>
+      </c>
+      <c r="H4">
+        <v>0.54</v>
+      </c>
+      <c r="I4">
+        <v>0.78</v>
+      </c>
+      <c r="J4">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>0.98</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0.99</v>
+      </c>
+      <c r="E5">
+        <v>0.93</v>
+      </c>
+      <c r="F5">
+        <v>0.89</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0.97</v>
+      </c>
+      <c r="I5">
+        <v>0.99</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>0.78</v>
+      </c>
+      <c r="C6">
+        <v>0.01</v>
+      </c>
+      <c r="D6">
+        <v>0.01</v>
+      </c>
+      <c r="E6">
+        <v>0.09</v>
+      </c>
+      <c r="F6">
+        <v>0.63</v>
+      </c>
+      <c r="G6">
+        <v>0.02</v>
+      </c>
+      <c r="H6">
+        <v>0.08</v>
+      </c>
+      <c r="I6">
+        <v>0.11</v>
+      </c>
+      <c r="J6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>0.94</v>
+      </c>
+      <c r="C7">
+        <v>0.82</v>
+      </c>
+      <c r="D7">
+        <v>0.82</v>
+      </c>
+      <c r="E7">
+        <v>0.8</v>
+      </c>
+      <c r="F7">
+        <v>0.87</v>
+      </c>
+      <c r="G7">
+        <v>0.83</v>
+      </c>
+      <c r="H7">
+        <v>0.82</v>
+      </c>
+      <c r="I7">
+        <v>0.83</v>
+      </c>
+      <c r="J7">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>0.85</v>
+      </c>
+      <c r="C8">
+        <v>0.01</v>
+      </c>
+      <c r="D8">
+        <v>0.03</v>
+      </c>
+      <c r="E8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F8">
+        <v>0.67</v>
+      </c>
+      <c r="G8">
+        <v>0.04</v>
+      </c>
+      <c r="H8">
+        <v>0.15</v>
+      </c>
+      <c r="I8">
+        <v>0.19</v>
+      </c>
+      <c r="J8">
+        <v>0.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B\Desktop\Uni\PhD\Physical\Project\False-Data-Injection-Detection-for-Smart-Grid-Systems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{469C9FFA-CE89-431A-B3A4-61CF178F693F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80D132C-1661-438D-AEED-591B376348A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{DB13A7B6-A9F6-44BD-A24F-2A24EF4BD986}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{DB13A7B6-A9F6-44BD-A24F-2A24EF4BD986}"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
   <si>
     <t>Accuracy</t>
   </si>
@@ -84,6 +84,24 @@
   </si>
   <si>
     <t>F1Score1</t>
+  </si>
+  <si>
+    <t>TP Rate</t>
+  </si>
+  <si>
+    <t>FN Rate</t>
+  </si>
+  <si>
+    <t>TN Rate</t>
+  </si>
+  <si>
+    <t>FP Rate</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROC AUC </t>
   </si>
 </sst>
 </file>
@@ -1201,6 +1219,1000 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
+              <c:f>initial!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ROC AUC </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>initial!$B$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Random Forect</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Logistic Regression</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GaussianNB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>KNeighborsClassifier</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Decision Tree</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>AdaBoost</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>GradientBoosting</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Bagging</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>initial!$B$10:$J$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.97399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58099999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.58199999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.67300000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.74399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.50600000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8E60-40F1-8CCE-9EC84D48EDE1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="789187359"/>
+        <c:axId val="789189855"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="789187359"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="789189855"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="789189855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="789187359"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Confusion Matrix Rates</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>initial!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TP Rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>initial!$B$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Random Forect</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Logistic Regression</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GaussianNB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>KNeighborsClassifier</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Decision Tree</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>AdaBoost</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>GradientBoosting</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Bagging</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>initial!$B$11:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.97499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.98899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.90200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.98599999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.95799999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-44F7-44F0-AC71-C432C1BB2BB2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>initial!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FN Rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>initial!$B$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Random Forect</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Logistic Regression</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GaussianNB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>KNeighborsClassifier</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Decision Tree</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>AdaBoost</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>GradientBoosting</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Bagging</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>initial!$B$12:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.8000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.2000000000000003E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0000000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-44F7-44F0-AC71-C432C1BB2BB2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>initial!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FP Rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>initial!$B$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Random Forect</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Logistic Regression</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GaussianNB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>KNeighborsClassifier</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Decision Tree</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>AdaBoost</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>GradientBoosting</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Bagging</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>initial!$B$13:$J$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.214</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.97499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.98799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.438</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.95299999999999996</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.89400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.88300000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99299999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-44F7-44F0-AC71-C432C1BB2BB2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>initial!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TN Rate</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>initial!$B$1:$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>Random Forect</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Logistic Regression</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>GaussianNB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>KNeighborsClassifier</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Decision Tree</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>AdaBoost</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>GradientBoosting</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Bagging</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>initial!$B$14:$J$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>0.78600000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56200000000000006</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.7E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.106</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.0000000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-44F7-44F0-AC71-C432C1BB2BB2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="831099695"/>
+        <c:axId val="831104271"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="831099695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="831104271"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="831104271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="831099695"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
               <c:f>scaled!$A$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -1462,7 +2474,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2298,6 +3310,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -3808,7 +4900,7 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4012,6 +5104,1014 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
@@ -4314,16 +6414,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>223837</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>14287</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>862012</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>319087</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4350,15 +6450,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>214312</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>33337</xdr:colOff>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>852487</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>338137</xdr:colOff>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>185737</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4379,6 +6479,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{225DFA58-53DB-4CC3-96F4-7F401A95B512}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C204315-6211-47D8-ACCE-6EFA104D0DE2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4761,10 +6933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF88E30-9087-4055-8DE5-F47D62670C56}">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="X17" sqref="X17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5034,6 +7206,166 @@
         <v>0</v>
       </c>
     </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10">
+        <v>0.58099999999999996</v>
+      </c>
+      <c r="E10">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="F10">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="G10">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="H10">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="I10">
+        <v>0.74399999999999999</v>
+      </c>
+      <c r="J10">
+        <v>0.50600000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="C11">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="D11">
+        <v>0.99399999999999999</v>
+      </c>
+      <c r="E11">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="F11">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="G11">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="H11">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="I11">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="J11">
+        <v>0.996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C12">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="D12">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E12">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="F12">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="G12">
+        <v>1.4E-2</v>
+      </c>
+      <c r="H12">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="I12">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J12">
+        <v>4.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>0.214</v>
+      </c>
+      <c r="C13">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="D13">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="E13">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="F13">
+        <v>0.438</v>
+      </c>
+      <c r="G13">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="H13">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="I13">
+        <v>0.88300000000000001</v>
+      </c>
+      <c r="J13">
+        <v>0.99299999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="C14">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="D14">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E14">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F14">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="G14">
+        <v>4.7E-2</v>
+      </c>
+      <c r="H14">
+        <v>0.106</v>
+      </c>
+      <c r="I14">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="J14">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -5045,7 +7377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3268192-9544-431F-9349-D487156342F4}">
   <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B\Desktop\Uni\PhD\Physical\Project\False-Data-Injection-Detection-for-Smart-Grid-Systems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brenn\Documents\School\M.A.Sc\CISC 850\False-Data-Injection-Detection-for-Smart-Grid-Systems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A80D132C-1661-438D-AEED-591B376348A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B344D95-DF10-49EB-BBC5-55886BAE9A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{DB13A7B6-A9F6-44BD-A24F-2A24EF4BD986}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{DB13A7B6-A9F6-44BD-A24F-2A24EF4BD986}"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" r:id="rId1"/>
     <sheet name="scaled" sheetId="2" r:id="rId2"/>
+    <sheet name="10-Fold" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="25">
   <si>
     <t>Accuracy</t>
   </si>
@@ -102,6 +103,15 @@
   </si>
   <si>
     <t xml:space="preserve">ROC AUC </t>
+  </si>
+  <si>
+    <t>Training Time</t>
+  </si>
+  <si>
+    <t>Training Time(s)</t>
+  </si>
+  <si>
+    <t>Testing Time(s)</t>
   </si>
 </sst>
 </file>
@@ -6933,27 +6943,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF88E30-9087-4055-8DE5-F47D62670C56}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="X17" sqref="X17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -6982,7 +6992,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -7014,7 +7024,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -7046,7 +7056,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -7078,7 +7088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -7110,7 +7120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -7142,7 +7152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -7174,7 +7184,7 @@
         <v>0.82</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -7206,7 +7216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
@@ -7238,7 +7248,7 @@
         <v>0.50600000000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -7270,7 +7280,7 @@
         <v>0.996</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -7302,7 +7312,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -7334,7 +7344,7 @@
         <v>0.99299999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -7364,6 +7374,70 @@
       </c>
       <c r="J14">
         <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>16.920000000000002</v>
+      </c>
+      <c r="C16">
+        <v>346.7</v>
+      </c>
+      <c r="D16">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="E16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F16">
+        <v>0.03</v>
+      </c>
+      <c r="G16">
+        <v>0.62</v>
+      </c>
+      <c r="H16">
+        <v>10.92</v>
+      </c>
+      <c r="I16">
+        <v>52.74</v>
+      </c>
+      <c r="J16">
+        <v>265.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>0.44</v>
+      </c>
+      <c r="C17">
+        <v>9.77</v>
+      </c>
+      <c r="D17">
+        <v>0.02</v>
+      </c>
+      <c r="E17">
+        <v>0.03</v>
+      </c>
+      <c r="F17">
+        <v>7.3</v>
+      </c>
+      <c r="G17">
+        <v>0.02</v>
+      </c>
+      <c r="H17">
+        <v>0.26</v>
+      </c>
+      <c r="I17">
+        <v>0.05</v>
+      </c>
+      <c r="J17">
+        <v>187.96</v>
       </c>
     </row>
   </sheetData>
@@ -7381,21 +7455,21 @@
       <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
@@ -7424,7 +7498,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -7456,7 +7530,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -7488,7 +7562,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -7520,7 +7594,7 @@
         <v>0.77</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -7552,7 +7626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -7584,7 +7658,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -7616,7 +7690,7 @@
         <v>0.83</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
@@ -7652,4 +7726,118 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D6660C-F940-4C99-8FF5-F26313308248}">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.93</v>
+      </c>
+      <c r="D2">
+        <v>0.70299999999999996</v>
+      </c>
+      <c r="E2">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="F2">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="G2">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="H2">
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="I2">
+        <v>0.72899999999999998</v>
+      </c>
+      <c r="J2">
+        <v>0.70299999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>317.10000000000002</v>
+      </c>
+      <c r="D4">
+        <v>10.8</v>
+      </c>
+      <c r="E4">
+        <v>1.74</v>
+      </c>
+      <c r="F4">
+        <v>33.1</v>
+      </c>
+      <c r="G4">
+        <v>10.4</v>
+      </c>
+      <c r="H4">
+        <v>194.53</v>
+      </c>
+      <c r="I4">
+        <v>1042.7</v>
+      </c>
+      <c r="J4">
+        <v>7134</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,14 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brenn\Documents\School\M.A.Sc\CISC 850\False-Data-Injection-Detection-for-Smart-Grid-Systems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B344D95-DF10-49EB-BBC5-55886BAE9A3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51183D2-1CF4-4B39-BA46-CAE5CC719A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{DB13A7B6-A9F6-44BD-A24F-2A24EF4BD986}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="7" xr2:uid="{DB13A7B6-A9F6-44BD-A24F-2A24EF4BD986}"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" r:id="rId1"/>
     <sheet name="scaled" sheetId="2" r:id="rId2"/>
     <sheet name="10-Fold" sheetId="3" r:id="rId3"/>
+    <sheet name="top10 Features" sheetId="4" r:id="rId4"/>
+    <sheet name="top20 Features" sheetId="5" r:id="rId5"/>
+    <sheet name="top30 Features" sheetId="6" r:id="rId6"/>
+    <sheet name="top40 Features" sheetId="7" r:id="rId7"/>
+    <sheet name="top50 Features" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="26">
   <si>
     <t>Accuracy</t>
   </si>
@@ -113,6 +118,9 @@
   <si>
     <t>Testing Time(s)</t>
   </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
 </sst>
 </file>
 
@@ -155,9 +163,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6946,7 +6955,7 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7732,7 +7741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87D6660C-F940-4C99-8FF5-F26313308248}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -7840,4 +7849,2349 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED6117E7-7971-4A16-B6AC-BC9562095A1F}">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A1:J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.71</v>
+      </c>
+      <c r="D2">
+        <v>0.61</v>
+      </c>
+      <c r="E2">
+        <v>0.7</v>
+      </c>
+      <c r="F2">
+        <v>0.74</v>
+      </c>
+      <c r="G2">
+        <v>0.71</v>
+      </c>
+      <c r="H2">
+        <v>0.71</v>
+      </c>
+      <c r="I2">
+        <v>0.71</v>
+      </c>
+      <c r="J2">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>0.76</v>
+      </c>
+      <c r="D3">
+        <v>0.7</v>
+      </c>
+      <c r="E3">
+        <v>0.71</v>
+      </c>
+      <c r="F3">
+        <v>0.79</v>
+      </c>
+      <c r="G3">
+        <v>0.71</v>
+      </c>
+      <c r="H3">
+        <v>0.71</v>
+      </c>
+      <c r="I3">
+        <v>0.71</v>
+      </c>
+      <c r="J3">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>0.51</v>
+      </c>
+      <c r="D4">
+        <v>0.26</v>
+      </c>
+      <c r="E4">
+        <v>0.32</v>
+      </c>
+      <c r="F4">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G4">
+        <v>0.97</v>
+      </c>
+      <c r="H4">
+        <v>0.77</v>
+      </c>
+      <c r="I4">
+        <v>0.64</v>
+      </c>
+      <c r="J4">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>0.87</v>
+      </c>
+      <c r="D5">
+        <v>0.79</v>
+      </c>
+      <c r="E5">
+        <v>0.99</v>
+      </c>
+      <c r="F5">
+        <v>0.87</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>0.33</v>
+      </c>
+      <c r="D6">
+        <v>0.18</v>
+      </c>
+      <c r="E6">
+        <v>0.02</v>
+      </c>
+      <c r="F6">
+        <v>0.43</v>
+      </c>
+      <c r="G6">
+        <v>0.01</v>
+      </c>
+      <c r="H6">
+        <v>0.01</v>
+      </c>
+      <c r="I6">
+        <v>0.02</v>
+      </c>
+      <c r="J6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>0.81</v>
+      </c>
+      <c r="D7">
+        <v>0.74</v>
+      </c>
+      <c r="E7">
+        <v>0.82</v>
+      </c>
+      <c r="F7">
+        <v>0.83</v>
+      </c>
+      <c r="G7">
+        <v>0.83</v>
+      </c>
+      <c r="H7">
+        <v>0.83</v>
+      </c>
+      <c r="I7">
+        <v>0.83</v>
+      </c>
+      <c r="J7">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>0.4</v>
+      </c>
+      <c r="D8">
+        <v>0.22</v>
+      </c>
+      <c r="E8">
+        <v>0.03</v>
+      </c>
+      <c r="F8">
+        <v>0.49</v>
+      </c>
+      <c r="G8">
+        <v>0.02</v>
+      </c>
+      <c r="H8">
+        <v>0.02</v>
+      </c>
+      <c r="I8">
+        <v>0.03</v>
+      </c>
+      <c r="J8">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>0.69</v>
+      </c>
+      <c r="D10">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="E10">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="F10">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="G10">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="H10">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="I10">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="J10">
+        <v>0.504</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>0.86699999999999999</v>
+      </c>
+      <c r="D11">
+        <v>0.79</v>
+      </c>
+      <c r="E11">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="F11">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0.999</v>
+      </c>
+      <c r="I11">
+        <v>0.996</v>
+      </c>
+      <c r="J11">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="D12">
+        <v>0.21</v>
+      </c>
+      <c r="E12">
+        <v>1.4E-2</v>
+      </c>
+      <c r="F12">
+        <v>0.13100000000000001</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>1E-3</v>
+      </c>
+      <c r="I12">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="J12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>0.66600000000000004</v>
+      </c>
+      <c r="D13">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="E13">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="F13">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="G13">
+        <v>0.99</v>
+      </c>
+      <c r="H13">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="J13">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="D14">
+        <v>0.183</v>
+      </c>
+      <c r="E14">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F14">
+        <v>0.432</v>
+      </c>
+      <c r="G14">
+        <v>0.01</v>
+      </c>
+      <c r="H14">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="I14">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J14">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>7.03</v>
+      </c>
+      <c r="D16">
+        <v>0.02</v>
+      </c>
+      <c r="E16">
+        <v>0.01</v>
+      </c>
+      <c r="F16">
+        <v>0.12</v>
+      </c>
+      <c r="G16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H16">
+        <v>2.33</v>
+      </c>
+      <c r="I16">
+        <v>5.31</v>
+      </c>
+      <c r="J16">
+        <v>137.37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>0.3</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>2.37</v>
+      </c>
+      <c r="G17">
+        <v>0.02</v>
+      </c>
+      <c r="H17">
+        <v>0.16</v>
+      </c>
+      <c r="I17">
+        <v>0.04</v>
+      </c>
+      <c r="J17">
+        <v>174.62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3EA0D40-0BD0-4534-A01A-4BC411BCEA6D}">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K14" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.84</v>
+      </c>
+      <c r="D2">
+        <v>0.59</v>
+      </c>
+      <c r="E2">
+        <v>0.7</v>
+      </c>
+      <c r="F2">
+        <v>0.77</v>
+      </c>
+      <c r="G2">
+        <v>0.71</v>
+      </c>
+      <c r="H2">
+        <v>0.7</v>
+      </c>
+      <c r="I2">
+        <v>0.71</v>
+      </c>
+      <c r="J2">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>0.85</v>
+      </c>
+      <c r="D3">
+        <v>0.69</v>
+      </c>
+      <c r="E3">
+        <v>0.7</v>
+      </c>
+      <c r="F3">
+        <v>0.81</v>
+      </c>
+      <c r="G3">
+        <v>0.7</v>
+      </c>
+      <c r="H3">
+        <v>0.7</v>
+      </c>
+      <c r="I3">
+        <v>0.71</v>
+      </c>
+      <c r="J3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>0.78</v>
+      </c>
+      <c r="D4">
+        <v>0.27</v>
+      </c>
+      <c r="E4">
+        <v>0.39</v>
+      </c>
+      <c r="F4">
+        <v>0.65</v>
+      </c>
+      <c r="G4">
+        <v>0.8</v>
+      </c>
+      <c r="H4">
+        <v>0.66</v>
+      </c>
+      <c r="I4">
+        <v>0.69</v>
+      </c>
+      <c r="J4">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>0.93</v>
+      </c>
+      <c r="D5">
+        <v>0.74</v>
+      </c>
+      <c r="E5">
+        <v>0.99</v>
+      </c>
+      <c r="F5">
+        <v>0.88</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>0.99</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>0.62</v>
+      </c>
+      <c r="D6">
+        <v>0.23</v>
+      </c>
+      <c r="E6">
+        <v>0.02</v>
+      </c>
+      <c r="F6">
+        <v>0.52</v>
+      </c>
+      <c r="G6">
+        <v>0.01</v>
+      </c>
+      <c r="H6">
+        <v>0.01</v>
+      </c>
+      <c r="I6">
+        <v>0.05</v>
+      </c>
+      <c r="J6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>0.89</v>
+      </c>
+      <c r="D7">
+        <v>0.72</v>
+      </c>
+      <c r="E7">
+        <v>0.82</v>
+      </c>
+      <c r="F7">
+        <v>0.85</v>
+      </c>
+      <c r="G7">
+        <v>0.83</v>
+      </c>
+      <c r="H7">
+        <v>0.83</v>
+      </c>
+      <c r="I7">
+        <v>0.83</v>
+      </c>
+      <c r="J7">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>0.69</v>
+      </c>
+      <c r="D8">
+        <v>0.25</v>
+      </c>
+      <c r="E8">
+        <v>0.03</v>
+      </c>
+      <c r="F8">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G8">
+        <v>0.02</v>
+      </c>
+      <c r="H8">
+        <v>0.03</v>
+      </c>
+      <c r="I8">
+        <v>0.09</v>
+      </c>
+      <c r="J8">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="D10">
+        <v>0.48599999999999999</v>
+      </c>
+      <c r="E10">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="F10">
+        <v>0.82</v>
+      </c>
+      <c r="G10">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="H10">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="I10">
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="J10">
+        <v>0.505</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="D11">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="E11">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="F11">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="G11">
+        <v>0.999</v>
+      </c>
+      <c r="H11">
+        <v>0.997</v>
+      </c>
+      <c r="I11">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="J11">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="D12">
+        <v>0.25900000000000001</v>
+      </c>
+      <c r="E12">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F12">
+        <v>0.11799999999999999</v>
+      </c>
+      <c r="G12">
+        <v>1E-3</v>
+      </c>
+      <c r="H12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I12">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="J12">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>0.38</v>
+      </c>
+      <c r="D13">
+        <v>0.77300000000000002</v>
+      </c>
+      <c r="E13">
+        <v>0.98199999999999998</v>
+      </c>
+      <c r="F13">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="G13">
+        <v>0.98899999999999999</v>
+      </c>
+      <c r="H13">
+        <v>0.98599999999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.95299999999999996</v>
+      </c>
+      <c r="J13">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>6.2E-2</v>
+      </c>
+      <c r="D14">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="E14">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="F14">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="G14">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="H14">
+        <v>1.4E-2</v>
+      </c>
+      <c r="I14">
+        <v>4.7E-2</v>
+      </c>
+      <c r="J14">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>12.1</v>
+      </c>
+      <c r="D16">
+        <v>0.34</v>
+      </c>
+      <c r="E16">
+        <v>0.02</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0.12</v>
+      </c>
+      <c r="H16">
+        <v>3.32</v>
+      </c>
+      <c r="I16">
+        <v>13.74</v>
+      </c>
+      <c r="J16">
+        <v>134.78</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>0.3</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>7.07</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0.1</v>
+      </c>
+      <c r="I17">
+        <v>0.02</v>
+      </c>
+      <c r="J17">
+        <v>140.72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73067A05-4875-4968-9636-32AF036C24DB}">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.88</v>
+      </c>
+      <c r="D2">
+        <v>0.7</v>
+      </c>
+      <c r="E2">
+        <v>0.7</v>
+      </c>
+      <c r="F2">
+        <v>0.84</v>
+      </c>
+      <c r="G2">
+        <v>0.71</v>
+      </c>
+      <c r="H2">
+        <v>0.71</v>
+      </c>
+      <c r="I2">
+        <v>0.72</v>
+      </c>
+      <c r="J2">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>0.89</v>
+      </c>
+      <c r="D3">
+        <v>0.71</v>
+      </c>
+      <c r="E3">
+        <v>0.71</v>
+      </c>
+      <c r="F3">
+        <v>0.87</v>
+      </c>
+      <c r="G3">
+        <v>0.71</v>
+      </c>
+      <c r="H3">
+        <v>0.71</v>
+      </c>
+      <c r="I3">
+        <v>0.72</v>
+      </c>
+      <c r="J3">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>0.85</v>
+      </c>
+      <c r="D4">
+        <v>0.36</v>
+      </c>
+      <c r="E4">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F4">
+        <v>0.74</v>
+      </c>
+      <c r="G4">
+        <v>0.95</v>
+      </c>
+      <c r="H4">
+        <v>0.59</v>
+      </c>
+      <c r="I4">
+        <v>0.73</v>
+      </c>
+      <c r="J4">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>0.95</v>
+      </c>
+      <c r="D5">
+        <v>0.98</v>
+      </c>
+      <c r="E5">
+        <v>0.98</v>
+      </c>
+      <c r="F5">
+        <v>0.9</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0.99</v>
+      </c>
+      <c r="I5">
+        <v>0.99</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>0.71</v>
+      </c>
+      <c r="D6">
+        <v>0.03</v>
+      </c>
+      <c r="E6">
+        <v>0.02</v>
+      </c>
+      <c r="F6">
+        <v>0.68</v>
+      </c>
+      <c r="G6">
+        <v>0.01</v>
+      </c>
+      <c r="H6">
+        <v>0.03</v>
+      </c>
+      <c r="I6">
+        <v>0.05</v>
+      </c>
+      <c r="J6">
+        <v>9.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>0.92</v>
+      </c>
+      <c r="D7">
+        <v>0.82</v>
+      </c>
+      <c r="E7">
+        <v>0.82</v>
+      </c>
+      <c r="F7">
+        <v>0.89</v>
+      </c>
+      <c r="G7">
+        <v>0.83</v>
+      </c>
+      <c r="H7">
+        <v>0.83</v>
+      </c>
+      <c r="I7">
+        <v>0.83</v>
+      </c>
+      <c r="J7">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>0.78</v>
+      </c>
+      <c r="D8">
+        <v>0.06</v>
+      </c>
+      <c r="E8">
+        <v>0.03</v>
+      </c>
+      <c r="F8">
+        <v>0.71</v>
+      </c>
+      <c r="G8">
+        <v>0.01</v>
+      </c>
+      <c r="H8">
+        <v>0.05</v>
+      </c>
+      <c r="I8">
+        <v>0.09</v>
+      </c>
+      <c r="J8">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="D10">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="E10">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="F10">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="G10">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="H10">
+        <v>0.62</v>
+      </c>
+      <c r="I10">
+        <v>0.69499999999999995</v>
+      </c>
+      <c r="J10">
+        <v>0.504</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="D11">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="E11">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="F11">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="J11">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="D12">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E12">
+        <v>1.6E-2</v>
+      </c>
+      <c r="F12">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="I12">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="J12">
+        <v>2E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>0.28599999999999998</v>
+      </c>
+      <c r="D13">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="E13">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="F13">
+        <v>0.31900000000000001</v>
+      </c>
+      <c r="G13">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="H13">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="I13">
+        <v>0.94899999999999995</v>
+      </c>
+      <c r="J13">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>0.71399999999999997</v>
+      </c>
+      <c r="D14">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E14">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F14">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="G14">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H14">
+        <v>2.7E-2</v>
+      </c>
+      <c r="I14">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="J14">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>16.239999999999998</v>
+      </c>
+      <c r="D16">
+        <v>0.79</v>
+      </c>
+      <c r="E16">
+        <v>0.04</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0.24</v>
+      </c>
+      <c r="H16">
+        <v>5.27</v>
+      </c>
+      <c r="I16">
+        <v>24.9</v>
+      </c>
+      <c r="J16">
+        <v>239.17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>0.33</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0.02</v>
+      </c>
+      <c r="F17">
+        <v>8.5399999999999991</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0.24</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>209.83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{868259F1-F7B0-416A-9894-5EE1A7398A3C}">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.91</v>
+      </c>
+      <c r="D2">
+        <v>0.71</v>
+      </c>
+      <c r="E2">
+        <v>0.7</v>
+      </c>
+      <c r="F2">
+        <v>0.8</v>
+      </c>
+      <c r="G2">
+        <v>0.71</v>
+      </c>
+      <c r="H2">
+        <v>0.71</v>
+      </c>
+      <c r="I2">
+        <v>0.72</v>
+      </c>
+      <c r="J2">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>0.91</v>
+      </c>
+      <c r="D3">
+        <v>0.71</v>
+      </c>
+      <c r="E3">
+        <v>0.71</v>
+      </c>
+      <c r="F3">
+        <v>0.84</v>
+      </c>
+      <c r="G3">
+        <v>0.71</v>
+      </c>
+      <c r="H3">
+        <v>0.71</v>
+      </c>
+      <c r="I3">
+        <v>0.72</v>
+      </c>
+      <c r="J3">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>0.91</v>
+      </c>
+      <c r="D4">
+        <v>0.62</v>
+      </c>
+      <c r="E4">
+        <v>0.34</v>
+      </c>
+      <c r="F4">
+        <v>0.7</v>
+      </c>
+      <c r="G4">
+        <v>0.79</v>
+      </c>
+      <c r="H4">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I4">
+        <v>0.71</v>
+      </c>
+      <c r="J4">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>0.97</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0.98</v>
+      </c>
+      <c r="F5">
+        <v>0.89</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0.98</v>
+      </c>
+      <c r="I5">
+        <v>0.99</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>0.78</v>
+      </c>
+      <c r="D6">
+        <v>0.01</v>
+      </c>
+      <c r="E6">
+        <v>0.02</v>
+      </c>
+      <c r="F6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G6">
+        <v>0.03</v>
+      </c>
+      <c r="H6">
+        <v>0.04</v>
+      </c>
+      <c r="I6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J6">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>0.94</v>
+      </c>
+      <c r="D7">
+        <v>0.83</v>
+      </c>
+      <c r="E7">
+        <v>0.82</v>
+      </c>
+      <c r="F7">
+        <v>0.86</v>
+      </c>
+      <c r="G7">
+        <v>0.83</v>
+      </c>
+      <c r="H7">
+        <v>0.83</v>
+      </c>
+      <c r="I7">
+        <v>0.83</v>
+      </c>
+      <c r="J7">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>0.84</v>
+      </c>
+      <c r="D8">
+        <v>0.02</v>
+      </c>
+      <c r="E8">
+        <v>0.04</v>
+      </c>
+      <c r="F8">
+        <v>0.63</v>
+      </c>
+      <c r="G8">
+        <v>0.05</v>
+      </c>
+      <c r="H8">
+        <v>0.08</v>
+      </c>
+      <c r="I8">
+        <v>0.13</v>
+      </c>
+      <c r="J8">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="D10">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E10">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="F10">
+        <v>0.84899999999999998</v>
+      </c>
+      <c r="G10">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="H10">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="I10">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="J10">
+        <v>0.50600000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>0.96499999999999997</v>
+      </c>
+      <c r="D11">
+        <v>0.997</v>
+      </c>
+      <c r="E11">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="F11">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="G11">
+        <v>0.997</v>
+      </c>
+      <c r="H11">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="J11">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="D12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E12">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F12">
+        <v>0.107</v>
+      </c>
+      <c r="G12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="I12">
+        <v>1.2E-2</v>
+      </c>
+      <c r="J12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>0.216</v>
+      </c>
+      <c r="D13">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="E13">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="F13">
+        <v>0.42</v>
+      </c>
+      <c r="G13">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="H13">
+        <v>0.95599999999999996</v>
+      </c>
+      <c r="I13">
+        <v>0.93</v>
+      </c>
+      <c r="J13">
+        <v>0.98499999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>0.78400000000000003</v>
+      </c>
+      <c r="D14">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E14">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F14">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G14">
+        <v>2.7E-2</v>
+      </c>
+      <c r="H14">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="I14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J14">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>14.57</v>
+      </c>
+      <c r="D16">
+        <v>0.82</v>
+      </c>
+      <c r="E16">
+        <v>0.05</v>
+      </c>
+      <c r="F16">
+        <v>0.01</v>
+      </c>
+      <c r="G16">
+        <v>0.27</v>
+      </c>
+      <c r="H16">
+        <v>7.3</v>
+      </c>
+      <c r="I16">
+        <v>22.8</v>
+      </c>
+      <c r="J16">
+        <v>148.44999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>0.39</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0.02</v>
+      </c>
+      <c r="F17">
+        <v>9.15</v>
+      </c>
+      <c r="G17">
+        <v>0.01</v>
+      </c>
+      <c r="H17">
+        <v>0.19</v>
+      </c>
+      <c r="I17">
+        <v>0.02</v>
+      </c>
+      <c r="J17">
+        <v>127.14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A456BF-BCA1-4B29-9B8F-A0A47D328134}">
+  <dimension ref="A1:J17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.92</v>
+      </c>
+      <c r="D2">
+        <v>0.71</v>
+      </c>
+      <c r="E2">
+        <v>0.7</v>
+      </c>
+      <c r="F2">
+        <v>0.8</v>
+      </c>
+      <c r="G2">
+        <v>0.71</v>
+      </c>
+      <c r="H2">
+        <v>0.71</v>
+      </c>
+      <c r="I2">
+        <v>0.72</v>
+      </c>
+      <c r="J2">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>0.91</v>
+      </c>
+      <c r="D3">
+        <v>0.71</v>
+      </c>
+      <c r="E3">
+        <v>0.71</v>
+      </c>
+      <c r="F3">
+        <v>0.83</v>
+      </c>
+      <c r="G3">
+        <v>0.71</v>
+      </c>
+      <c r="H3">
+        <v>0.72</v>
+      </c>
+      <c r="I3">
+        <v>0.72</v>
+      </c>
+      <c r="J3">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>0.93</v>
+      </c>
+      <c r="D4">
+        <v>0.6</v>
+      </c>
+      <c r="E4">
+        <v>0.37</v>
+      </c>
+      <c r="F4">
+        <v>0.71</v>
+      </c>
+      <c r="G4">
+        <v>0.97</v>
+      </c>
+      <c r="H4">
+        <v>0.54</v>
+      </c>
+      <c r="I4">
+        <v>0.82</v>
+      </c>
+      <c r="J4">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5">
+        <v>0.98</v>
+      </c>
+      <c r="D5">
+        <v>0.99</v>
+      </c>
+      <c r="E5">
+        <v>0.98</v>
+      </c>
+      <c r="F5">
+        <v>0.9</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>0.98</v>
+      </c>
+      <c r="I5">
+        <v>0.99</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>0.77</v>
+      </c>
+      <c r="D6">
+        <v>0.02</v>
+      </c>
+      <c r="E6">
+        <v>0.03</v>
+      </c>
+      <c r="F6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="G6">
+        <v>0.02</v>
+      </c>
+      <c r="H6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I6">
+        <v>0.08</v>
+      </c>
+      <c r="J6">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>0.94</v>
+      </c>
+      <c r="D7">
+        <v>0.83</v>
+      </c>
+      <c r="E7">
+        <v>0.82</v>
+      </c>
+      <c r="F7">
+        <v>0.87</v>
+      </c>
+      <c r="G7">
+        <v>0.83</v>
+      </c>
+      <c r="H7">
+        <v>0.83</v>
+      </c>
+      <c r="I7">
+        <v>0.84</v>
+      </c>
+      <c r="J7">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>0.84</v>
+      </c>
+      <c r="D8">
+        <v>0.05</v>
+      </c>
+      <c r="E8">
+        <v>0.05</v>
+      </c>
+      <c r="F8">
+        <v>0.62</v>
+      </c>
+      <c r="G8">
+        <v>0.04</v>
+      </c>
+      <c r="H8">
+        <v>0.12</v>
+      </c>
+      <c r="I8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J8">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="D10">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="E10">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="F10">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="G10">
+        <v>0.58599999999999997</v>
+      </c>
+      <c r="H10">
+        <v>0.67</v>
+      </c>
+      <c r="I10">
+        <v>0.73</v>
+      </c>
+      <c r="J10">
+        <v>0.50800000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="D11">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="E11">
+        <v>0.97899999999999998</v>
+      </c>
+      <c r="F11">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="I11">
+        <v>0.99299999999999999</v>
+      </c>
+      <c r="J11">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12">
+        <v>2.3E-2</v>
+      </c>
+      <c r="D12">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E12">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="F12">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="I12">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="J12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="D13">
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="E13">
+        <v>0.97099999999999997</v>
+      </c>
+      <c r="F13">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="G13">
+        <v>0.98</v>
+      </c>
+      <c r="H13">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="I13">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="J13">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="D14">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E14">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="F14">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="G14">
+        <v>0.02</v>
+      </c>
+      <c r="H14">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="I14">
+        <v>7.8E-2</v>
+      </c>
+      <c r="J14">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16">
+        <v>16.91</v>
+      </c>
+      <c r="D16">
+        <v>0.47</v>
+      </c>
+      <c r="E16">
+        <v>0.03</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0.27</v>
+      </c>
+      <c r="H16">
+        <v>4.91</v>
+      </c>
+      <c r="I16">
+        <v>23.83</v>
+      </c>
+      <c r="J16">
+        <v>144.86000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17">
+        <v>0.33</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0.02</v>
+      </c>
+      <c r="F17">
+        <v>7.52</v>
+      </c>
+      <c r="G17">
+        <v>0.01</v>
+      </c>
+      <c r="H17">
+        <v>0.15</v>
+      </c>
+      <c r="I17">
+        <v>0.02</v>
+      </c>
+      <c r="J17">
+        <v>121.23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brenn\Documents\School\M.A.Sc\CISC 850\False-Data-Injection-Detection-for-Smart-Grid-Systems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51183D2-1CF4-4B39-BA46-CAE5CC719A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DD1520-8409-46B1-A29F-E6B52484E0DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="7" xr2:uid="{DB13A7B6-A9F6-44BD-A24F-2A24EF4BD986}"/>
+    <workbookView xWindow="11556" yWindow="4512" windowWidth="17280" windowHeight="8964" firstSheet="6" activeTab="7" xr2:uid="{DB13A7B6-A9F6-44BD-A24F-2A24EF4BD986}"/>
   </bookViews>
   <sheets>
     <sheet name="initial" sheetId="1" r:id="rId1"/>
@@ -7855,8 +7855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED6117E7-7971-4A16-B6AC-BC9562095A1F}">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A1:J17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7910,6 +7910,9 @@
       <c r="B2">
         <v>0.71</v>
       </c>
+      <c r="C2">
+        <v>0.7</v>
+      </c>
       <c r="D2">
         <v>0.61</v>
       </c>
@@ -7939,6 +7942,9 @@
       <c r="B3">
         <v>0.76</v>
       </c>
+      <c r="C3">
+        <v>0.7</v>
+      </c>
       <c r="D3">
         <v>0.7</v>
       </c>
@@ -7968,6 +7974,9 @@
       <c r="B4">
         <v>0.51</v>
       </c>
+      <c r="C4">
+        <v>0.9</v>
+      </c>
       <c r="D4">
         <v>0.26</v>
       </c>
@@ -7997,6 +8006,9 @@
       <c r="B5">
         <v>0.87</v>
       </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
       <c r="D5">
         <v>0.79</v>
       </c>
@@ -8026,6 +8038,9 @@
       <c r="B6">
         <v>0.33</v>
       </c>
+      <c r="C6">
+        <v>0.01</v>
+      </c>
       <c r="D6">
         <v>0.18</v>
       </c>
@@ -8055,6 +8070,9 @@
       <c r="B7">
         <v>0.81</v>
       </c>
+      <c r="C7">
+        <v>0.82</v>
+      </c>
       <c r="D7">
         <v>0.74</v>
       </c>
@@ -8084,6 +8102,9 @@
       <c r="B8">
         <v>0.4</v>
       </c>
+      <c r="C8">
+        <v>0.01</v>
+      </c>
       <c r="D8">
         <v>0.22</v>
       </c>
@@ -8145,6 +8166,9 @@
       <c r="B11">
         <v>0.86699999999999999</v>
       </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
       <c r="D11">
         <v>0.79</v>
       </c>
@@ -8174,6 +8198,9 @@
       <c r="B12">
         <v>0.13300000000000001</v>
       </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
       <c r="D12">
         <v>0.21</v>
       </c>
@@ -8203,6 +8230,9 @@
       <c r="B13">
         <v>0.66600000000000004</v>
       </c>
+      <c r="C13">
+        <v>0.99399999999999999</v>
+      </c>
       <c r="D13">
         <v>0.81699999999999995</v>
       </c>
@@ -8232,6 +8262,9 @@
       <c r="B14">
         <v>0.33400000000000002</v>
       </c>
+      <c r="C14">
+        <v>6.0000000000000001E-3</v>
+      </c>
       <c r="D14">
         <v>0.183</v>
       </c>
@@ -8264,6 +8297,9 @@
       <c r="B16">
         <v>7.03</v>
       </c>
+      <c r="C16">
+        <v>60.4</v>
+      </c>
       <c r="D16">
         <v>0.02</v>
       </c>
@@ -8292,6 +8328,9 @@
       </c>
       <c r="B17">
         <v>0.3</v>
+      </c>
+      <c r="C17">
+        <v>8.89</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -8325,14 +8364,14 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="A1:XFD1048576"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.21875" bestFit="1" customWidth="1"/>
@@ -8379,6 +8418,9 @@
       <c r="B2">
         <v>0.84</v>
       </c>
+      <c r="C2">
+        <v>0.7</v>
+      </c>
       <c r="D2">
         <v>0.59</v>
       </c>
@@ -8408,6 +8450,9 @@
       <c r="B3">
         <v>0.85</v>
       </c>
+      <c r="C3">
+        <v>0.7</v>
+      </c>
       <c r="D3">
         <v>0.69</v>
       </c>
@@ -8437,6 +8482,9 @@
       <c r="B4">
         <v>0.78</v>
       </c>
+      <c r="C4">
+        <v>0.88</v>
+      </c>
       <c r="D4">
         <v>0.27</v>
       </c>
@@ -8466,6 +8514,9 @@
       <c r="B5">
         <v>0.93</v>
       </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
       <c r="D5">
         <v>0.74</v>
       </c>
@@ -8495,6 +8546,9 @@
       <c r="B6">
         <v>0.62</v>
       </c>
+      <c r="C6">
+        <v>0.01</v>
+      </c>
       <c r="D6">
         <v>0.23</v>
       </c>
@@ -8524,6 +8578,9 @@
       <c r="B7">
         <v>0.89</v>
       </c>
+      <c r="C7">
+        <v>0.82</v>
+      </c>
       <c r="D7">
         <v>0.72</v>
       </c>
@@ -8553,6 +8610,9 @@
       <c r="B8">
         <v>0.69</v>
       </c>
+      <c r="C8">
+        <v>0.01</v>
+      </c>
       <c r="D8">
         <v>0.25</v>
       </c>
@@ -8614,6 +8674,9 @@
       <c r="B11">
         <v>0.92600000000000005</v>
       </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
       <c r="D11">
         <v>0.74099999999999999</v>
       </c>
@@ -8643,6 +8706,9 @@
       <c r="B12">
         <v>7.3999999999999996E-2</v>
       </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
       <c r="D12">
         <v>0.25900000000000001</v>
       </c>
@@ -8672,6 +8738,9 @@
       <c r="B13">
         <v>0.38</v>
       </c>
+      <c r="C13">
+        <v>0.99199999999999999</v>
+      </c>
       <c r="D13">
         <v>0.77300000000000002</v>
       </c>
@@ -8701,6 +8770,9 @@
       <c r="B14">
         <v>6.2E-2</v>
       </c>
+      <c r="C14">
+        <v>8.0000000000000002E-3</v>
+      </c>
       <c r="D14">
         <v>0.22700000000000001</v>
       </c>
@@ -8733,6 +8805,9 @@
       <c r="B16">
         <v>12.1</v>
       </c>
+      <c r="C16">
+        <v>58.83</v>
+      </c>
       <c r="D16">
         <v>0.34</v>
       </c>
@@ -8761,6 +8836,9 @@
       </c>
       <c r="B17">
         <v>0.3</v>
+      </c>
+      <c r="C17">
+        <v>6.8</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -8794,14 +8872,14 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="A1:XFD1048576"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.21875" bestFit="1" customWidth="1"/>
@@ -8848,6 +8926,9 @@
       <c r="B2">
         <v>0.88</v>
       </c>
+      <c r="C2">
+        <v>0.7</v>
+      </c>
       <c r="D2">
         <v>0.7</v>
       </c>
@@ -8877,6 +8958,9 @@
       <c r="B3">
         <v>0.89</v>
       </c>
+      <c r="C3">
+        <v>0.7</v>
+      </c>
       <c r="D3">
         <v>0.71</v>
       </c>
@@ -8906,6 +8990,9 @@
       <c r="B4">
         <v>0.85</v>
       </c>
+      <c r="C4">
+        <v>0.54</v>
+      </c>
       <c r="D4">
         <v>0.36</v>
       </c>
@@ -8935,6 +9022,9 @@
       <c r="B5">
         <v>0.95</v>
       </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
       <c r="D5">
         <v>0.98</v>
       </c>
@@ -8964,6 +9054,9 @@
       <c r="B6">
         <v>0.71</v>
       </c>
+      <c r="C6">
+        <v>0.01</v>
+      </c>
       <c r="D6">
         <v>0.03</v>
       </c>
@@ -8993,6 +9086,9 @@
       <c r="B7">
         <v>0.92</v>
       </c>
+      <c r="C7">
+        <v>0.82</v>
+      </c>
       <c r="D7">
         <v>0.82</v>
       </c>
@@ -9022,6 +9118,9 @@
       <c r="B8">
         <v>0.78</v>
       </c>
+      <c r="C8">
+        <v>0.02</v>
+      </c>
       <c r="D8">
         <v>0.06</v>
       </c>
@@ -9083,6 +9182,9 @@
       <c r="B11">
         <v>0.94899999999999995</v>
       </c>
+      <c r="C11">
+        <v>0.996</v>
+      </c>
       <c r="D11">
         <v>0.97699999999999998</v>
       </c>
@@ -9112,6 +9214,9 @@
       <c r="B12">
         <v>5.1999999999999998E-2</v>
       </c>
+      <c r="C12">
+        <v>4.0000000000000001E-3</v>
+      </c>
       <c r="D12">
         <v>2.3E-2</v>
       </c>
@@ -9141,6 +9246,9 @@
       <c r="B13">
         <v>0.28599999999999998</v>
       </c>
+      <c r="C13">
+        <v>0.98899999999999999</v>
+      </c>
       <c r="D13">
         <v>0.96899999999999997</v>
       </c>
@@ -9170,6 +9278,9 @@
       <c r="B14">
         <v>0.71399999999999997</v>
       </c>
+      <c r="C14">
+        <v>1.0999999999999999E-2</v>
+      </c>
       <c r="D14">
         <v>3.1E-2</v>
       </c>
@@ -9202,6 +9313,9 @@
       <c r="B16">
         <v>16.239999999999998</v>
       </c>
+      <c r="C16">
+        <v>64.81</v>
+      </c>
       <c r="D16">
         <v>0.79</v>
       </c>
@@ -9230,6 +9344,9 @@
       </c>
       <c r="B17">
         <v>0.33</v>
+      </c>
+      <c r="C17">
+        <v>7.11</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -9263,14 +9380,14 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:XFD1048576"/>
+      <selection activeCell="C11" sqref="C11:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.21875" bestFit="1" customWidth="1"/>
@@ -9317,6 +9434,9 @@
       <c r="B2">
         <v>0.91</v>
       </c>
+      <c r="C2">
+        <v>0.71</v>
+      </c>
       <c r="D2">
         <v>0.71</v>
       </c>
@@ -9346,6 +9466,9 @@
       <c r="B3">
         <v>0.91</v>
       </c>
+      <c r="C3">
+        <v>0.71</v>
+      </c>
       <c r="D3">
         <v>0.71</v>
       </c>
@@ -9375,6 +9498,9 @@
       <c r="B4">
         <v>0.91</v>
       </c>
+      <c r="C4">
+        <v>0.68</v>
+      </c>
       <c r="D4">
         <v>0.62</v>
       </c>
@@ -9404,6 +9530,9 @@
       <c r="B5">
         <v>0.97</v>
       </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
       <c r="D5">
         <v>1</v>
       </c>
@@ -9433,6 +9562,9 @@
       <c r="B6">
         <v>0.78</v>
       </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
       <c r="D6">
         <v>0.01</v>
       </c>
@@ -9462,6 +9594,9 @@
       <c r="B7">
         <v>0.94</v>
       </c>
+      <c r="C7">
+        <v>0.83</v>
+      </c>
       <c r="D7">
         <v>0.83</v>
       </c>
@@ -9491,6 +9626,9 @@
       <c r="B8">
         <v>0.84</v>
       </c>
+      <c r="C8">
+        <v>0.01</v>
+      </c>
       <c r="D8">
         <v>0.02</v>
       </c>
@@ -9552,6 +9690,9 @@
       <c r="B11">
         <v>0.96499999999999997</v>
       </c>
+      <c r="C11">
+        <v>0.999</v>
+      </c>
       <c r="D11">
         <v>0.997</v>
       </c>
@@ -9581,6 +9722,9 @@
       <c r="B12">
         <v>3.5000000000000003E-2</v>
       </c>
+      <c r="C12">
+        <v>1E-3</v>
+      </c>
       <c r="D12">
         <v>3.0000000000000001E-3</v>
       </c>
@@ -9610,6 +9754,9 @@
       <c r="B13">
         <v>0.216</v>
       </c>
+      <c r="C13">
+        <v>0.995</v>
+      </c>
       <c r="D13">
         <v>0.98799999999999999</v>
       </c>
@@ -9639,6 +9786,9 @@
       <c r="B14">
         <v>0.78400000000000003</v>
       </c>
+      <c r="C14">
+        <v>5.0000000000000001E-3</v>
+      </c>
       <c r="D14">
         <v>1.2E-2</v>
       </c>
@@ -9671,6 +9821,9 @@
       <c r="B16">
         <v>14.57</v>
       </c>
+      <c r="C16">
+        <v>80.56</v>
+      </c>
       <c r="D16">
         <v>0.82</v>
       </c>
@@ -9699,6 +9852,9 @@
       </c>
       <c r="B17">
         <v>0.39</v>
+      </c>
+      <c r="C17">
+        <v>7.37</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -9732,14 +9888,14 @@
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.21875" bestFit="1" customWidth="1"/>
@@ -9786,6 +9942,9 @@
       <c r="B2">
         <v>0.92</v>
       </c>
+      <c r="C2">
+        <v>0.7</v>
+      </c>
       <c r="D2">
         <v>0.71</v>
       </c>
@@ -9815,6 +9974,9 @@
       <c r="B3">
         <v>0.91</v>
       </c>
+      <c r="C3">
+        <v>0.7</v>
+      </c>
       <c r="D3">
         <v>0.71</v>
       </c>
@@ -9844,6 +10006,9 @@
       <c r="B4">
         <v>0.93</v>
       </c>
+      <c r="C4">
+        <v>0.86</v>
+      </c>
       <c r="D4">
         <v>0.6</v>
       </c>
@@ -9873,6 +10038,9 @@
       <c r="B5">
         <v>0.98</v>
       </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
       <c r="D5">
         <v>0.99</v>
       </c>
@@ -9902,6 +10070,9 @@
       <c r="B6">
         <v>0.77</v>
       </c>
+      <c r="C6">
+        <v>0.01</v>
+      </c>
       <c r="D6">
         <v>0.02</v>
       </c>
@@ -9931,6 +10102,9 @@
       <c r="B7">
         <v>0.94</v>
       </c>
+      <c r="C7">
+        <v>0.82</v>
+      </c>
       <c r="D7">
         <v>0.83</v>
       </c>
@@ -9960,6 +10134,9 @@
       <c r="B8">
         <v>0.84</v>
       </c>
+      <c r="C8">
+        <v>0.02</v>
+      </c>
       <c r="D8">
         <v>0.05</v>
       </c>
@@ -10021,6 +10198,9 @@
       <c r="B11">
         <v>0.97699999999999998</v>
       </c>
+      <c r="C11">
+        <v>0.999</v>
+      </c>
       <c r="D11">
         <v>0.99299999999999999</v>
       </c>
@@ -10050,6 +10230,9 @@
       <c r="B12">
         <v>2.3E-2</v>
       </c>
+      <c r="C12">
+        <v>1E-3</v>
+      </c>
       <c r="D12">
         <v>7.0000000000000001E-3</v>
       </c>
@@ -10079,6 +10262,9 @@
       <c r="B13">
         <v>0.22900000000000001</v>
       </c>
+      <c r="C13">
+        <v>0.98899999999999999</v>
+      </c>
       <c r="D13">
         <v>0.97499999999999998</v>
       </c>
@@ -10108,6 +10294,9 @@
       <c r="B14">
         <v>0.77100000000000002</v>
       </c>
+      <c r="C14">
+        <v>1.0999999999999999E-2</v>
+      </c>
       <c r="D14">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -10140,6 +10329,9 @@
       <c r="B16">
         <v>16.91</v>
       </c>
+      <c r="C16">
+        <v>124.77</v>
+      </c>
       <c r="D16">
         <v>0.47</v>
       </c>
@@ -10168,6 +10360,9 @@
       </c>
       <c r="B17">
         <v>0.33</v>
+      </c>
+      <c r="C17">
+        <v>7.52</v>
       </c>
       <c r="D17">
         <v>0</v>
